--- a/Book 4.xlsx
+++ b/Book 4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29728"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AA3434F-2E14-4E15-A3B2-73F64DC37464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B430FD6-D7B2-4270-A3B6-75DB54C10A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>UserID</t>
   </si>
@@ -42,7 +42,28 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>Website</t>
+    <t>WebsiteName</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
   <si>
     <t>Password</t>
@@ -51,20 +72,46 @@
     <t>Testuser</t>
   </si>
   <si>
-    <t>Tool shop demo</t>
-  </si>
-  <si>
-    <t>Abc@123</t>
+    <t>TestLast</t>
+  </si>
+  <si>
+    <t>https://practicesoftwaretesting.com/</t>
+  </si>
+  <si>
+    <t>1999-12-01</t>
+  </si>
+  <si>
+    <t>Testingxperts</t>
+  </si>
+  <si>
+    <t>Testcity</t>
+  </si>
+  <si>
+    <t>Teststate</t>
+  </si>
+  <si>
+    <t>testmanage997@gmail.com</t>
+  </si>
+  <si>
+    <t>Work@247234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,13 +134,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,22 +457,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,25 +487,74 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>123456</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>1234567890</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{7F11E27E-6AAF-4B03-B07E-394A60187BCC}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{F4B62E02-6336-414D-A50F-968B1FE3CE8E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>